--- a/InputFiles/CRDC/Section-A.xlsx
+++ b/InputFiles/CRDC/Section-A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\CRDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Downloads\Commons_Automation\InputFiles\CRDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA782826-9C99-40E3-8FA6-111C2D3BE4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9739F1-B44F-45B4-8935-58D193E445A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{4BB1E63D-F59F-49AC-ACD7-0D16EF5464D4}"/>
+    <workbookView xWindow="26203" yWindow="-609" windowWidth="17280" windowHeight="8966" activeTab="1" xr2:uid="{4BB1E63D-F59F-49AC-ACD7-0D16EF5464D4}"/>
   </bookViews>
   <sheets>
     <sheet name="principal-investigator" sheetId="1" r:id="rId1"/>
@@ -4829,12 +4829,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4849,8 +4855,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12953,7 +12960,7 @@
   <dimension ref="A1:F1542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12967,22 +12974,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1565</v>
       </c>
     </row>
